--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4593056191148155</v>
+        <v>0.4578811476443206</v>
       </c>
       <c r="D2">
-        <v>0.6460741715761149</v>
+        <v>0.6515281364624679</v>
       </c>
       <c r="E2">
         <v>3.493250612135945</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.121039496540609</v>
+        <v>2.101788371738125</v>
       </c>
       <c r="D3">
-        <v>0.03406467973198057</v>
+        <v>0.04724539954097984</v>
       </c>
       <c r="E3">
         <v>3.493250612135945</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.6116741497820376</v>
+        <v>0.6067288523277496</v>
       </c>
       <c r="D4">
-        <v>0.5408361801187227</v>
+        <v>0.5502415079792056</v>
       </c>
       <c r="E4">
         <v>3.493250612135945</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.569581232818447</v>
+        <v>1.581505926820458</v>
       </c>
       <c r="D5">
-        <v>0.1167009921878721</v>
+        <v>0.1280336269331432</v>
       </c>
       <c r="E5">
         <v>3.493250612135945</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>2.005016716151004</v>
+        <v>2.362863452307251</v>
       </c>
       <c r="D6">
-        <v>0.04512152285193927</v>
+        <v>0.02739224927889183</v>
       </c>
       <c r="E6">
         <v>3.305759720960994</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1986594790017924</v>
+        <v>0.2839498404626359</v>
       </c>
       <c r="D7">
-        <v>0.8425531749387318</v>
+        <v>0.7791040682120898</v>
       </c>
       <c r="E7">
         <v>3.305759720960994</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.019653759651127</v>
+        <v>1.398589365051952</v>
       </c>
       <c r="D8">
-        <v>0.3080395967216654</v>
+        <v>0.1758755565913757</v>
       </c>
       <c r="E8">
         <v>3.305759720960994</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.512298432270737</v>
+        <v>-1.490592639585562</v>
       </c>
       <c r="D9">
-        <v>0.1306461499639233</v>
+        <v>0.1502677460341615</v>
       </c>
       <c r="E9">
         <v>2.665540977687403</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.4264436809332143</v>
+        <v>-0.6264032473782998</v>
       </c>
       <c r="D10">
-        <v>0.6698392453514725</v>
+        <v>0.5374965201911031</v>
       </c>
       <c r="E10">
         <v>2.665540977687403</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.7563151735357306</v>
+        <v>1.035510361585338</v>
       </c>
       <c r="D11">
-        <v>0.449566355197867</v>
+        <v>0.3116795417668587</v>
       </c>
       <c r="E11">
         <v>3.220087488509876</v>
